--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.010920-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.010920-1.xlsx_with_dialog_acts.xlsx
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1827,12 +1827,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2003,12 +2003,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2171,12 +2171,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2255,12 +2255,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2339,12 +2339,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2423,12 +2423,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2633,12 +2633,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3053,12 +3053,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3725,12 +3725,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3893,12 +3893,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4313,12 +4313,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4397,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4565,12 +4565,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4691,12 +4691,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4859,12 +4859,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5489,12 +5489,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5909,12 +5909,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6455,12 +6455,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6707,12 +6707,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6959,12 +6959,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7379,12 +7379,12 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7799,12 +7799,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7883,12 +7883,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7925,12 +7925,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8805,12 +8805,12 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8889,12 +8889,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9517,12 +9517,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9643,12 +9643,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9895,12 +9895,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10105,12 +10105,12 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10147,12 +10147,12 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10315,12 +10315,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10735,12 +10735,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10861,12 +10861,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11029,12 +11029,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11071,12 +11071,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11323,12 +11323,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12245,12 +12245,12 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12287,12 +12287,12 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -12665,12 +12665,12 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
